--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H2">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N2">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q2">
-        <v>24.04019026097371</v>
+        <v>2.267729155218333</v>
       </c>
       <c r="R2">
-        <v>24.04019026097371</v>
+        <v>20.409562396965</v>
       </c>
       <c r="S2">
-        <v>0.5050344365172343</v>
+        <v>0.03250126290308303</v>
       </c>
       <c r="T2">
-        <v>0.5050344365172343</v>
+        <v>0.03250126290308303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H3">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N3">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q3">
-        <v>0.7610168952819956</v>
+        <v>0.07157050764566666</v>
       </c>
       <c r="R3">
-        <v>0.7610168952819956</v>
+        <v>0.644134568811</v>
       </c>
       <c r="S3">
-        <v>0.015987383407392</v>
+        <v>0.00102575383825983</v>
       </c>
       <c r="T3">
-        <v>0.015987383407392</v>
+        <v>0.00102575383825983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H4">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I4">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J4">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N4">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q4">
-        <v>0.6425523557220157</v>
+        <v>0.05940630523944445</v>
       </c>
       <c r="R4">
-        <v>0.6425523557220157</v>
+        <v>0.534656747155</v>
       </c>
       <c r="S4">
-        <v>0.01349868962691587</v>
+        <v>0.0008514155847249276</v>
       </c>
       <c r="T4">
-        <v>0.01349868962691587</v>
+        <v>0.0008514155847249276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H5">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I5">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J5">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N5">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q5">
-        <v>9.439091357366044</v>
+        <v>0.8901431161748889</v>
       </c>
       <c r="R5">
-        <v>9.439091357366044</v>
+        <v>8.011288045574</v>
       </c>
       <c r="S5">
-        <v>0.1982956928856258</v>
+        <v>0.01275759734075661</v>
       </c>
       <c r="T5">
-        <v>0.1982956928856258</v>
+        <v>0.01275759734075661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H6">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J6">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N6">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q6">
-        <v>8.765020897051864</v>
+        <v>33.16015754080166</v>
       </c>
       <c r="R6">
-        <v>8.765020897051864</v>
+        <v>298.441417867215</v>
       </c>
       <c r="S6">
-        <v>0.1841348733828647</v>
+        <v>0.4752538439880324</v>
       </c>
       <c r="T6">
-        <v>0.1841348733828647</v>
+        <v>0.4752538439880325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H7">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J7">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N7">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q7">
-        <v>0.2774657320821907</v>
+        <v>1.046548836462333</v>
       </c>
       <c r="R7">
-        <v>0.2774657320821907</v>
+        <v>9.418939528160999</v>
       </c>
       <c r="S7">
-        <v>0.005828978395501904</v>
+        <v>0.01499921575577358</v>
       </c>
       <c r="T7">
-        <v>0.005828978395501904</v>
+        <v>0.01499921575577359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H8">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J8">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N8">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q8">
-        <v>0.2342737209736732</v>
+        <v>0.8686762421005556</v>
       </c>
       <c r="R8">
-        <v>0.2342737209736732</v>
+        <v>7.818086178905</v>
       </c>
       <c r="S8">
-        <v>0.004921604004723986</v>
+        <v>0.0124499325050368</v>
       </c>
       <c r="T8">
-        <v>0.004921604004723986</v>
+        <v>0.0124499325050368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.103153</v>
+      </c>
+      <c r="I9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.516752666666667</v>
+      </c>
+      <c r="N9">
+        <v>28.550258</v>
+      </c>
+      <c r="O9">
+        <v>0.2706548988307292</v>
+      </c>
+      <c r="P9">
+        <v>0.2706548988307293</v>
+      </c>
+      <c r="Q9">
+        <v>13.01623075149711</v>
+      </c>
+      <c r="R9">
+        <v>117.146076763474</v>
+      </c>
+      <c r="S9">
+        <v>0.1865495871445334</v>
+      </c>
+      <c r="T9">
+        <v>0.1865495871445335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.523097</v>
+      </c>
+      <c r="H10">
+        <v>1.569291</v>
+      </c>
+      <c r="I10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.244885</v>
+      </c>
+      <c r="N10">
+        <v>72.734655</v>
+      </c>
+      <c r="O10">
+        <v>0.6895205882382217</v>
+      </c>
+      <c r="P10">
+        <v>0.6895205882382218</v>
+      </c>
+      <c r="Q10">
+        <v>12.682426608845</v>
+      </c>
+      <c r="R10">
+        <v>114.141839479605</v>
+      </c>
+      <c r="S10">
+        <v>0.1817654813471063</v>
+      </c>
+      <c r="T10">
+        <v>0.1817654813471064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="H9">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="I9">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="J9">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.24380474631681</v>
-      </c>
-      <c r="N9">
-        <v>8.24380474631681</v>
-      </c>
-      <c r="O9">
-        <v>0.2705940346653672</v>
-      </c>
-      <c r="P9">
-        <v>0.2705940346653672</v>
-      </c>
-      <c r="Q9">
-        <v>3.441479959116763</v>
-      </c>
-      <c r="R9">
-        <v>3.441479959116763</v>
-      </c>
-      <c r="S9">
-        <v>0.07229834177974143</v>
-      </c>
-      <c r="T9">
-        <v>0.07229834177974143</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.523097</v>
+      </c>
+      <c r="H11">
+        <v>1.569291</v>
+      </c>
+      <c r="I11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7651789999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.295537</v>
+      </c>
+      <c r="O11">
+        <v>0.02176156637523891</v>
+      </c>
+      <c r="P11">
+        <v>0.02176156637523891</v>
+      </c>
+      <c r="Q11">
+        <v>0.400262839363</v>
+      </c>
+      <c r="R11">
+        <v>3.602365554267</v>
+      </c>
+      <c r="S11">
+        <v>0.005736596781205498</v>
+      </c>
+      <c r="T11">
+        <v>0.005736596781205499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.523097</v>
+      </c>
+      <c r="H12">
+        <v>1.569291</v>
+      </c>
+      <c r="I12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6351283333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.905385</v>
+      </c>
+      <c r="O12">
+        <v>0.01806294655581008</v>
+      </c>
+      <c r="P12">
+        <v>0.01806294655581008</v>
+      </c>
+      <c r="Q12">
+        <v>0.3322337257816667</v>
+      </c>
+      <c r="R12">
+        <v>2.990103532035</v>
+      </c>
+      <c r="S12">
+        <v>0.004761598466048354</v>
+      </c>
+      <c r="T12">
+        <v>0.004761598466048354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.523097</v>
+      </c>
+      <c r="H13">
+        <v>1.569291</v>
+      </c>
+      <c r="I13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.516752666666667</v>
+      </c>
+      <c r="N13">
+        <v>28.550258</v>
+      </c>
+      <c r="O13">
+        <v>0.2706548988307292</v>
+      </c>
+      <c r="P13">
+        <v>0.2706548988307293</v>
+      </c>
+      <c r="Q13">
+        <v>4.978184769675334</v>
+      </c>
+      <c r="R13">
+        <v>44.803662927078</v>
+      </c>
+      <c r="S13">
+        <v>0.07134771434543923</v>
+      </c>
+      <c r="T13">
+        <v>0.07134771434543924</v>
       </c>
     </row>
   </sheetData>
